--- a/Documents/Images and productList/Product List.xlsx
+++ b/Documents/Images and productList/Product List.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="1565">
   <si>
     <t xml:space="preserve">UPC</t>
   </si>
@@ -4131,7 +4131,7 @@
     <t xml:space="preserve">Brown </t>
   </si>
   <si>
-    <t xml:space="preserve">Home</t>
+    <t xml:space="preserve">Home Decor</t>
   </si>
   <si>
     <t xml:space="preserve">Bed Linen and Furnishing</t>
@@ -5023,9 +5023,6 @@
   </si>
   <si>
     <t xml:space="preserve">Black and Transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Decor</t>
   </si>
   <si>
     <t xml:space="preserve">Plants and Planters</t>
@@ -6793,7 +6790,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6883,11 +6880,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -6898,8 +6895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10607400" y="17704800"/>
-          <a:ext cx="151200" cy="151200"/>
+          <a:off x="10607400" y="17705160"/>
+          <a:ext cx="150840" cy="150840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6927,9 +6924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6939,7 +6936,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607400" y="105750000"/>
-          <a:ext cx="151200" cy="151200"/>
+          <a:ext cx="150840" cy="150840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6963,11 +6960,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -6978,47 +6975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10607400" y="118286280"/>
-          <a:ext cx="151200" cy="151200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10607760" y="374822640"/>
+          <a:off x="10607400" y="118286640"/>
           <a:ext cx="150840" cy="150840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7047,19 +7004,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7087,19 +7044,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7127,19 +7084,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7167,19 +7124,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7207,19 +7164,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7247,19 +7204,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7287,19 +7244,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7327,9 +7284,49 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10607760" y="374822640"/>
+          <a:ext cx="150480" cy="150480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7339,7 +7336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10607760" y="374822640"/>
-          <a:ext cx="150840" cy="150840"/>
+          <a:ext cx="150480" cy="150480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7368,8 +7365,8 @@
   </sheetPr>
   <dimension ref="A1:AMI414"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A290" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C271" activeCellId="0" sqref="C271:C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28760,7 +28757,7 @@
       <c r="AE270" s="6"/>
       <c r="AF270" s="6"/>
     </row>
-    <row r="271" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>270</v>
       </c>
@@ -28840,7 +28837,7 @@
       <c r="AE271" s="6"/>
       <c r="AF271" s="6"/>
     </row>
-    <row r="272" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>271</v>
       </c>
@@ -28920,7 +28917,7 @@
       <c r="AE272" s="6"/>
       <c r="AF272" s="6"/>
     </row>
-    <row r="273" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="170.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>272</v>
       </c>
@@ -29000,7 +28997,7 @@
       <c r="AE273" s="6"/>
       <c r="AF273" s="6"/>
     </row>
-    <row r="274" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>273</v>
       </c>
@@ -29080,7 +29077,7 @@
       <c r="AE274" s="6"/>
       <c r="AF274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="128.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>274</v>
       </c>
@@ -29160,7 +29157,7 @@
       <c r="AE275" s="6"/>
       <c r="AF275" s="6"/>
     </row>
-    <row r="276" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>275</v>
       </c>
@@ -29240,7 +29237,7 @@
       <c r="AE276" s="6"/>
       <c r="AF276" s="6"/>
     </row>
-    <row r="277" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>276</v>
       </c>
@@ -29320,7 +29317,7 @@
       <c r="AE277" s="6"/>
       <c r="AF277" s="6"/>
     </row>
-    <row r="278" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>277</v>
       </c>
@@ -29400,7 +29397,7 @@
       <c r="AE278" s="6"/>
       <c r="AF278" s="6"/>
     </row>
-    <row r="279" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>278</v>
       </c>
@@ -29480,7 +29477,7 @@
       <c r="AE279" s="6"/>
       <c r="AF279" s="6"/>
     </row>
-    <row r="280" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>279</v>
       </c>
@@ -29558,7 +29555,7 @@
       <c r="AE280" s="6"/>
       <c r="AF280" s="6"/>
     </row>
-    <row r="281" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>280</v>
       </c>
@@ -29636,7 +29633,7 @@
       <c r="AE281" s="6"/>
       <c r="AF281" s="6"/>
     </row>
-    <row r="282" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="246.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>281</v>
       </c>
@@ -29714,7 +29711,7 @@
       <c r="AE282" s="6"/>
       <c r="AF282" s="6"/>
     </row>
-    <row r="283" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>282</v>
       </c>
@@ -29792,7 +29789,7 @@
       <c r="AE283" s="6"/>
       <c r="AF283" s="6"/>
     </row>
-    <row r="284" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>283</v>
       </c>
@@ -29870,7 +29867,7 @@
       <c r="AE284" s="6"/>
       <c r="AF284" s="6"/>
     </row>
-    <row r="285" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>284</v>
       </c>
@@ -29948,7 +29945,7 @@
       <c r="AE285" s="6"/>
       <c r="AF285" s="6"/>
     </row>
-    <row r="286" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>285</v>
       </c>
@@ -30026,7 +30023,7 @@
       <c r="AE286" s="6"/>
       <c r="AF286" s="6"/>
     </row>
-    <row r="287" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="241.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>286</v>
       </c>
@@ -30104,7 +30101,7 @@
       <c r="AE287" s="6"/>
       <c r="AF287" s="6"/>
     </row>
-    <row r="288" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="212.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>287</v>
       </c>
@@ -30182,7 +30179,7 @@
       <c r="AE288" s="6"/>
       <c r="AF288" s="6"/>
     </row>
-    <row r="289" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>288</v>
       </c>
@@ -30260,7 +30257,7 @@
       <c r="AE289" s="6"/>
       <c r="AF289" s="6"/>
     </row>
-    <row r="290" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>289</v>
       </c>
@@ -30340,7 +30337,7 @@
       <c r="AE290" s="6"/>
       <c r="AF290" s="6"/>
     </row>
-    <row r="291" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>290</v>
       </c>
@@ -30420,7 +30417,7 @@
       <c r="AE291" s="6"/>
       <c r="AF291" s="6"/>
     </row>
-    <row r="292" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="128.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>291</v>
       </c>
@@ -30500,7 +30497,7 @@
       <c r="AE292" s="6"/>
       <c r="AF292" s="6"/>
     </row>
-    <row r="293" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="170.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>292</v>
       </c>
@@ -30580,7 +30577,7 @@
       <c r="AE293" s="6"/>
       <c r="AF293" s="6"/>
     </row>
-    <row r="294" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="212.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>293</v>
       </c>
@@ -30660,7 +30657,7 @@
       <c r="AE294" s="6"/>
       <c r="AF294" s="6"/>
     </row>
-    <row r="295" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>294</v>
       </c>
@@ -30740,7 +30737,7 @@
       <c r="AE295" s="6"/>
       <c r="AF295" s="6"/>
     </row>
-    <row r="296" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>295</v>
       </c>
@@ -30820,7 +30817,7 @@
       <c r="AE296" s="6"/>
       <c r="AF296" s="6"/>
     </row>
-    <row r="297" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="218.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>296</v>
       </c>
@@ -30900,7 +30897,7 @@
       <c r="AE297" s="6"/>
       <c r="AF297" s="6"/>
     </row>
-    <row r="298" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>297</v>
       </c>
@@ -30980,7 +30977,7 @@
       <c r="AE298" s="6"/>
       <c r="AF298" s="6"/>
     </row>
-    <row r="299" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="99.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>298</v>
       </c>
@@ -31058,7 +31055,7 @@
       <c r="AE299" s="6"/>
       <c r="AF299" s="6"/>
     </row>
-    <row r="300" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>299</v>
       </c>
@@ -31138,7 +31135,7 @@
       <c r="AE300" s="6"/>
       <c r="AF300" s="6"/>
     </row>
-    <row r="301" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="218.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>300</v>
       </c>
@@ -31218,7 +31215,7 @@
       <c r="AE301" s="6"/>
       <c r="AF301" s="6"/>
     </row>
-    <row r="302" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>301</v>
       </c>
@@ -31298,7 +31295,7 @@
       <c r="AE302" s="6"/>
       <c r="AF302" s="6"/>
     </row>
-    <row r="303" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="212.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>302</v>
       </c>
@@ -31378,7 +31375,7 @@
       <c r="AE303" s="6"/>
       <c r="AF303" s="6"/>
     </row>
-    <row r="304" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>303</v>
       </c>
@@ -31458,7 +31455,7 @@
       <c r="AE304" s="6"/>
       <c r="AF304" s="6"/>
     </row>
-    <row r="305" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>304</v>
       </c>
@@ -31538,7 +31535,7 @@
       <c r="AE305" s="6"/>
       <c r="AF305" s="6"/>
     </row>
-    <row r="306" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>305</v>
       </c>
@@ -31618,7 +31615,7 @@
       <c r="AE306" s="6"/>
       <c r="AF306" s="6"/>
     </row>
-    <row r="307" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>306</v>
       </c>
@@ -31698,7 +31695,7 @@
       <c r="AE307" s="6"/>
       <c r="AF307" s="6"/>
     </row>
-    <row r="308" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="99.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>307</v>
       </c>
@@ -31778,7 +31775,7 @@
       <c r="AE308" s="6"/>
       <c r="AF308" s="6"/>
     </row>
-    <row r="309" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>308</v>
       </c>
@@ -31858,7 +31855,7 @@
       <c r="AE309" s="6"/>
       <c r="AF309" s="6"/>
     </row>
-    <row r="310" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>309</v>
       </c>
@@ -31938,7 +31935,7 @@
       <c r="AE310" s="6"/>
       <c r="AF310" s="6"/>
     </row>
-    <row r="311" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>310</v>
       </c>
@@ -32018,7 +32015,7 @@
       <c r="AE311" s="6"/>
       <c r="AF311" s="6"/>
     </row>
-    <row r="312" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="227.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>311</v>
       </c>
@@ -32098,7 +32095,7 @@
       <c r="AE312" s="6"/>
       <c r="AF312" s="6"/>
     </row>
-    <row r="313" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>312</v>
       </c>
@@ -32178,7 +32175,7 @@
       <c r="AE313" s="6"/>
       <c r="AF313" s="6"/>
     </row>
-    <row r="314" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>313</v>
       </c>
@@ -32258,7 +32255,7 @@
       <c r="AE314" s="6"/>
       <c r="AF314" s="6"/>
     </row>
-    <row r="315" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>314</v>
       </c>
@@ -32269,24 +32266,24 @@
         <v>1049</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E315" s="6"/>
       <c r="F315" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G315" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="G315" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H315" s="6" t="n">
         <v>6801</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J315" s="6"/>
       <c r="K315" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6" t="s">
@@ -32312,7 +32309,7 @@
         <v>757</v>
       </c>
       <c r="U315" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V315" s="6"/>
       <c r="W315" s="6" t="s">
@@ -32331,14 +32328,14 @@
         <v>41</v>
       </c>
       <c r="AB315" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AC315" s="6"/>
       <c r="AD315" s="6"/>
       <c r="AE315" s="6"/>
       <c r="AF315" s="6"/>
     </row>
-    <row r="316" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <v>315</v>
       </c>
@@ -32349,24 +32346,24 @@
         <v>1049</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E316" s="6"/>
       <c r="F316" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G316" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="G316" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H316" s="6" t="n">
         <v>6802</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J316" s="6"/>
       <c r="K316" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6" t="s">
@@ -32392,7 +32389,7 @@
         <v>757</v>
       </c>
       <c r="U316" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V316" s="6"/>
       <c r="W316" s="6" t="s">
@@ -32411,14 +32408,14 @@
         <v>41</v>
       </c>
       <c r="AB316" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AC316" s="6"/>
       <c r="AD316" s="6"/>
       <c r="AE316" s="6"/>
       <c r="AF316" s="6"/>
     </row>
-    <row r="317" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="212.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <v>316</v>
       </c>
@@ -32429,24 +32426,24 @@
         <v>1049</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G317" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="G317" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H317" s="6" t="n">
         <v>6803</v>
       </c>
       <c r="I317" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J317" s="6"/>
       <c r="K317" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6" t="s">
@@ -32491,14 +32488,14 @@
         <v>41</v>
       </c>
       <c r="AB317" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AC317" s="6"/>
       <c r="AD317" s="6"/>
       <c r="AE317" s="6"/>
       <c r="AF317" s="6"/>
     </row>
-    <row r="318" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>317</v>
       </c>
@@ -32509,24 +32506,24 @@
         <v>1049</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G318" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="G318" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H318" s="6" t="n">
         <v>6804</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J318" s="6"/>
       <c r="K318" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6" t="s">
@@ -32552,7 +32549,7 @@
         <v>757</v>
       </c>
       <c r="U318" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V318" s="6"/>
       <c r="W318" s="6" t="s">
@@ -32571,14 +32568,14 @@
         <v>41</v>
       </c>
       <c r="AB318" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AC318" s="6"/>
       <c r="AD318" s="6"/>
       <c r="AE318" s="6"/>
       <c r="AF318" s="6"/>
     </row>
-    <row r="319" customFormat="false" ht="199.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>318</v>
       </c>
@@ -32589,24 +32586,24 @@
         <v>1049</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G319" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="G319" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H319" s="6" t="n">
         <v>6805</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J319" s="6"/>
       <c r="K319" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6" t="s">
@@ -32649,14 +32646,14 @@
         <v>41</v>
       </c>
       <c r="AB319" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AC319" s="6"/>
       <c r="AD319" s="6"/>
       <c r="AE319" s="6"/>
       <c r="AF319" s="6"/>
     </row>
-    <row r="320" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>319</v>
       </c>
@@ -32667,24 +32664,24 @@
         <v>1049</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E320" s="6"/>
       <c r="F320" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H320" s="6" t="n">
         <v>6901</v>
       </c>
       <c r="I320" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J320" s="6"/>
       <c r="K320" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6" t="s">
@@ -32727,14 +32724,14 @@
         <v>41</v>
       </c>
       <c r="AB320" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC320" s="6"/>
       <c r="AD320" s="6"/>
       <c r="AE320" s="6"/>
       <c r="AF320" s="6"/>
     </row>
-    <row r="321" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="84.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>320</v>
       </c>
@@ -32745,24 +32742,24 @@
         <v>1049</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H321" s="6" t="n">
         <v>6902</v>
       </c>
       <c r="I321" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J321" s="6"/>
       <c r="K321" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6" t="s">
@@ -32805,14 +32802,14 @@
         <v>41</v>
       </c>
       <c r="AB321" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC321" s="6"/>
       <c r="AD321" s="6"/>
       <c r="AE321" s="6"/>
       <c r="AF321" s="6"/>
     </row>
-    <row r="322" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>321</v>
       </c>
@@ -32823,24 +32820,24 @@
         <v>1049</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E322" s="6"/>
       <c r="F322" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H322" s="6" t="n">
         <v>6903</v>
       </c>
       <c r="I322" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J322" s="6"/>
       <c r="K322" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6" t="s">
@@ -32883,14 +32880,14 @@
         <v>41</v>
       </c>
       <c r="AB322" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC322" s="6"/>
       <c r="AD322" s="6"/>
       <c r="AE322" s="6"/>
       <c r="AF322" s="6"/>
     </row>
-    <row r="323" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <v>322</v>
       </c>
@@ -32901,24 +32898,24 @@
         <v>1049</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H323" s="6" t="n">
         <v>6904</v>
       </c>
       <c r="I323" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J323" s="6"/>
       <c r="K323" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6" t="s">
@@ -32961,14 +32958,14 @@
         <v>41</v>
       </c>
       <c r="AB323" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC323" s="6"/>
       <c r="AD323" s="6"/>
       <c r="AE323" s="6"/>
       <c r="AF323" s="6"/>
     </row>
-    <row r="324" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <v>323</v>
       </c>
@@ -32979,24 +32976,24 @@
         <v>1049</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H324" s="6" t="n">
         <v>6905</v>
       </c>
       <c r="I324" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="J324" s="6"/>
       <c r="K324" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6" t="s">
@@ -33039,14 +33036,14 @@
         <v>41</v>
       </c>
       <c r="AB324" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC324" s="6"/>
       <c r="AD324" s="6"/>
       <c r="AE324" s="6"/>
       <c r="AF324" s="6"/>
     </row>
-    <row r="325" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>324</v>
       </c>
@@ -33057,24 +33054,24 @@
         <v>1049</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E325" s="6"/>
       <c r="F325" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H325" s="6" t="n">
         <v>7001</v>
       </c>
       <c r="I325" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J325" s="6"/>
       <c r="K325" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6" t="s">
@@ -33119,14 +33116,14 @@
         <v>41</v>
       </c>
       <c r="AB325" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AC325" s="6"/>
       <c r="AD325" s="6"/>
       <c r="AE325" s="6"/>
       <c r="AF325" s="6"/>
     </row>
-    <row r="326" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="155.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <v>325</v>
       </c>
@@ -33137,24 +33134,24 @@
         <v>1049</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H326" s="6" t="n">
         <v>7002</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J326" s="6"/>
       <c r="K326" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6" t="s">
@@ -33199,14 +33196,14 @@
         <v>41</v>
       </c>
       <c r="AB326" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AC326" s="6"/>
       <c r="AD326" s="6"/>
       <c r="AE326" s="6"/>
       <c r="AF326" s="6"/>
     </row>
-    <row r="327" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>326</v>
       </c>
@@ -33217,24 +33214,24 @@
         <v>1049</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E327" s="6"/>
       <c r="F327" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H327" s="6" t="n">
         <v>7003</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J327" s="6"/>
       <c r="K327" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6" t="s">
@@ -33260,7 +33257,7 @@
         <v>757</v>
       </c>
       <c r="U327" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V327" s="6"/>
       <c r="W327" s="6" t="s">
@@ -33279,14 +33276,14 @@
         <v>41</v>
       </c>
       <c r="AB327" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AC327" s="6"/>
       <c r="AD327" s="6"/>
       <c r="AE327" s="6"/>
       <c r="AF327" s="6"/>
     </row>
-    <row r="328" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="241.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>327</v>
       </c>
@@ -33297,24 +33294,24 @@
         <v>1049</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E328" s="6"/>
       <c r="F328" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H328" s="6" t="n">
         <v>7004</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J328" s="6"/>
       <c r="K328" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6" t="s">
@@ -33364,7 +33361,7 @@
       <c r="AE328" s="6"/>
       <c r="AF328" s="6"/>
     </row>
-    <row r="329" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="170.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>328</v>
       </c>
@@ -33375,24 +33372,24 @@
         <v>1049</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E329" s="6"/>
       <c r="F329" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H329" s="6" t="n">
         <v>7005</v>
       </c>
       <c r="I329" s="23" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J329" s="23"/>
       <c r="K329" s="23" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L329" s="23"/>
       <c r="M329" s="6" t="s">
@@ -33415,7 +33412,7 @@
       </c>
       <c r="S329" s="6"/>
       <c r="T329" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="U329" s="6" t="s">
         <v>1177</v>
@@ -33437,14 +33434,14 @@
         <v>41</v>
       </c>
       <c r="AB329" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AC329" s="6"/>
       <c r="AD329" s="6"/>
       <c r="AE329" s="6"/>
       <c r="AF329" s="6"/>
     </row>
-    <row r="330" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="155.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <v>329</v>
       </c>
@@ -33455,24 +33452,24 @@
         <v>1049</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E330" s="6"/>
       <c r="F330" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H330" s="6" t="n">
         <v>7101</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J330" s="6"/>
       <c r="K330" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6" t="s">
@@ -33498,7 +33495,7 @@
         <v>757</v>
       </c>
       <c r="U330" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V330" s="6"/>
       <c r="W330" s="6" t="s">
@@ -33517,14 +33514,14 @@
         <v>41</v>
       </c>
       <c r="AB330" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AC330" s="6"/>
       <c r="AD330" s="6"/>
       <c r="AE330" s="6"/>
       <c r="AF330" s="6"/>
     </row>
-    <row r="331" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>330</v>
       </c>
@@ -33535,24 +33532,24 @@
         <v>1049</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E331" s="6"/>
       <c r="F331" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H331" s="6" t="n">
         <v>7102</v>
       </c>
       <c r="I331" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J331" s="6"/>
       <c r="K331" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6" t="s">
@@ -33595,14 +33592,14 @@
         <v>41</v>
       </c>
       <c r="AB331" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AC331" s="6"/>
       <c r="AD331" s="6"/>
       <c r="AE331" s="6"/>
       <c r="AF331" s="6"/>
     </row>
-    <row r="332" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="128.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>331</v>
       </c>
@@ -33613,24 +33610,24 @@
         <v>1049</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E332" s="6"/>
       <c r="F332" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H332" s="6" t="n">
         <v>7103</v>
       </c>
       <c r="I332" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J332" s="6"/>
       <c r="K332" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6" t="s">
@@ -33653,7 +33650,7 @@
       </c>
       <c r="S332" s="6"/>
       <c r="T332" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="U332" s="6" t="s">
         <v>1048</v>
@@ -33675,14 +33672,14 @@
         <v>41</v>
       </c>
       <c r="AB332" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AC332" s="6"/>
       <c r="AD332" s="6"/>
       <c r="AE332" s="6"/>
       <c r="AF332" s="6"/>
     </row>
-    <row r="333" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="155.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>332</v>
       </c>
@@ -33693,24 +33690,24 @@
         <v>1049</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E333" s="6"/>
       <c r="F333" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H333" s="6" t="n">
         <v>7104</v>
       </c>
       <c r="I333" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J333" s="6"/>
       <c r="K333" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6" t="s">
@@ -33755,14 +33752,14 @@
         <v>41</v>
       </c>
       <c r="AB333" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AC333" s="6"/>
       <c r="AD333" s="6"/>
       <c r="AE333" s="6"/>
       <c r="AF333" s="6"/>
     </row>
-    <row r="334" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>333</v>
       </c>
@@ -33773,24 +33770,24 @@
         <v>1049</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1214</v>
+        <v>1049</v>
       </c>
       <c r="E334" s="6"/>
       <c r="F334" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H334" s="6" t="n">
         <v>7105</v>
       </c>
       <c r="I334" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J334" s="6"/>
       <c r="K334" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6" t="s">
@@ -33816,7 +33813,7 @@
         <v>757</v>
       </c>
       <c r="U334" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V334" s="6"/>
       <c r="W334" s="6" t="s">
@@ -33835,7 +33832,7 @@
         <v>41</v>
       </c>
       <c r="AB334" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AC334" s="6"/>
       <c r="AD334" s="6"/>
@@ -33850,27 +33847,27 @@
         <v>2</v>
       </c>
       <c r="C335" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E335" s="6"/>
       <c r="F335" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G335" s="6" t="s">
         <v>1281</v>
-      </c>
-      <c r="G335" s="6" t="s">
-        <v>1282</v>
       </c>
       <c r="H335" s="6" t="n">
         <v>7201</v>
       </c>
       <c r="I335" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J335" s="6"/>
       <c r="K335" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6" t="s">
@@ -33911,14 +33908,14 @@
         <v>41</v>
       </c>
       <c r="AB335" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC335" s="6"/>
       <c r="AD335" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AE335" s="6" t="s">
         <v>1286</v>
-      </c>
-      <c r="AE335" s="6" t="s">
-        <v>1287</v>
       </c>
       <c r="AF335" s="6"/>
     </row>
@@ -33930,27 +33927,27 @@
         <v>2</v>
       </c>
       <c r="C336" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D336" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E336" s="6"/>
       <c r="F336" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H336" s="6" t="n">
         <v>7202</v>
       </c>
       <c r="I336" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J336" s="6"/>
       <c r="K336" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6" t="s">
@@ -33991,14 +33988,14 @@
         <v>41</v>
       </c>
       <c r="AB336" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC336" s="6"/>
       <c r="AD336" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AE336" s="6" t="s">
         <v>1286</v>
-      </c>
-      <c r="AE336" s="6" t="s">
-        <v>1287</v>
       </c>
       <c r="AF336" s="6"/>
     </row>
@@ -34010,27 +34007,27 @@
         <v>2</v>
       </c>
       <c r="C337" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D337" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H337" s="6" t="n">
         <v>7203</v>
       </c>
       <c r="I337" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J337" s="6"/>
       <c r="K337" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6" t="s">
@@ -34071,14 +34068,14 @@
         <v>41</v>
       </c>
       <c r="AB337" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC337" s="6"/>
       <c r="AD337" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE337" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AF337" s="6"/>
     </row>
@@ -34090,27 +34087,27 @@
         <v>2</v>
       </c>
       <c r="C338" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E338" s="6"/>
       <c r="F338" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H338" s="6" t="n">
         <v>7204</v>
       </c>
       <c r="I338" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="J338" s="6"/>
       <c r="K338" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6" t="s">
@@ -34151,14 +34148,14 @@
         <v>41</v>
       </c>
       <c r="AB338" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AC338" s="6"/>
       <c r="AD338" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE338" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AF338" s="6"/>
     </row>
@@ -34170,27 +34167,27 @@
         <v>2</v>
       </c>
       <c r="C339" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E339" s="6"/>
       <c r="F339" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H339" s="6" t="n">
         <v>7205</v>
       </c>
       <c r="I339" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J339" s="6"/>
       <c r="K339" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6" t="s">
@@ -34231,14 +34228,14 @@
         <v>41</v>
       </c>
       <c r="AB339" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AC339" s="6"/>
       <c r="AD339" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE339" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AF339" s="6"/>
     </row>
@@ -34250,27 +34247,27 @@
         <v>2</v>
       </c>
       <c r="C340" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D340" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E340" s="6"/>
       <c r="F340" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H340" s="6" t="n">
         <v>7301</v>
       </c>
       <c r="I340" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J340" s="6"/>
       <c r="K340" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6" t="s">
@@ -34289,7 +34286,7 @@
         <v>100</v>
       </c>
       <c r="R340" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
@@ -34311,14 +34308,14 @@
         <v>41</v>
       </c>
       <c r="AB340" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AC340" s="6"/>
       <c r="AD340" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE340" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AF340" s="6"/>
     </row>
@@ -34330,27 +34327,27 @@
         <v>2</v>
       </c>
       <c r="C341" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D341" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H341" s="6" t="n">
         <v>7302</v>
       </c>
       <c r="I341" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="J341" s="6"/>
       <c r="K341" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6" t="s">
@@ -34369,7 +34366,7 @@
         <v>100</v>
       </c>
       <c r="R341" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
@@ -34391,14 +34388,14 @@
         <v>41</v>
       </c>
       <c r="AB341" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AC341" s="6"/>
       <c r="AD341" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE341" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AF341" s="6"/>
     </row>
@@ -34410,27 +34407,27 @@
         <v>2</v>
       </c>
       <c r="C342" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H342" s="6" t="n">
         <v>7303</v>
       </c>
       <c r="I342" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J342" s="6"/>
       <c r="K342" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6" t="s">
@@ -34471,14 +34468,14 @@
         <v>41</v>
       </c>
       <c r="AB342" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AC342" s="6"/>
       <c r="AD342" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE342" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AF342" s="6"/>
     </row>
@@ -34490,27 +34487,27 @@
         <v>2</v>
       </c>
       <c r="C343" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D343" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D343" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E343" s="6"/>
       <c r="F343" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H343" s="6" t="n">
         <v>7304</v>
       </c>
       <c r="I343" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J343" s="6"/>
       <c r="K343" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6" t="s">
@@ -34551,14 +34548,14 @@
         <v>41</v>
       </c>
       <c r="AB343" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AC343" s="6"/>
       <c r="AD343" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE343" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AF343" s="6"/>
     </row>
@@ -34570,27 +34567,27 @@
         <v>2</v>
       </c>
       <c r="C344" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D344" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E344" s="6"/>
       <c r="F344" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H344" s="6" t="n">
         <v>7305</v>
       </c>
       <c r="I344" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J344" s="6"/>
       <c r="K344" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6" t="s">
@@ -34631,14 +34628,14 @@
         <v>41</v>
       </c>
       <c r="AB344" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AC344" s="6"/>
       <c r="AD344" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE344" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AF344" s="6"/>
     </row>
@@ -34650,27 +34647,27 @@
         <v>2</v>
       </c>
       <c r="C345" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D345" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H345" s="6" t="n">
         <v>7401</v>
       </c>
       <c r="I345" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J345" s="6"/>
       <c r="K345" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6" t="s">
@@ -34689,7 +34686,7 @@
         <v>100</v>
       </c>
       <c r="R345" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
@@ -34711,14 +34708,14 @@
         <v>41</v>
       </c>
       <c r="AB345" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AC345" s="6"/>
       <c r="AD345" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE345" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AF345" s="6"/>
     </row>
@@ -34730,27 +34727,27 @@
         <v>2</v>
       </c>
       <c r="C346" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D346" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E346" s="6"/>
       <c r="F346" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H346" s="6" t="n">
         <v>7402</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J346" s="6"/>
       <c r="K346" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6" t="s">
@@ -34769,7 +34766,7 @@
         <v>100</v>
       </c>
       <c r="R346" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
@@ -34793,14 +34790,14 @@
         <v>41</v>
       </c>
       <c r="AB346" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AC346" s="6"/>
       <c r="AD346" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE346" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AF346" s="6"/>
     </row>
@@ -34812,27 +34809,27 @@
         <v>2</v>
       </c>
       <c r="C347" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D347" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E347" s="6"/>
       <c r="F347" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H347" s="6" t="n">
         <v>7403</v>
       </c>
       <c r="I347" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J347" s="6"/>
       <c r="K347" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6" t="s">
@@ -34851,12 +34848,12 @@
         <v>100</v>
       </c>
       <c r="R347" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
       <c r="U347" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="V347" s="6"/>
       <c r="W347" s="6" t="s">
@@ -34875,14 +34872,14 @@
         <v>41</v>
       </c>
       <c r="AB347" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AC347" s="6"/>
       <c r="AD347" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE347" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AF347" s="6"/>
     </row>
@@ -34894,27 +34891,27 @@
         <v>2</v>
       </c>
       <c r="C348" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H348" s="6" t="n">
         <v>7404</v>
       </c>
       <c r="I348" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J348" s="6"/>
       <c r="K348" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6" t="s">
@@ -34933,12 +34930,12 @@
         <v>100</v>
       </c>
       <c r="R348" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
       <c r="U348" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="V348" s="6"/>
       <c r="W348" s="6" t="s">
@@ -34957,14 +34954,14 @@
         <v>41</v>
       </c>
       <c r="AB348" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="AC348" s="6"/>
       <c r="AD348" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE348" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AF348" s="6"/>
     </row>
@@ -34976,27 +34973,27 @@
         <v>2</v>
       </c>
       <c r="C349" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D349" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E349" s="6"/>
       <c r="F349" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H349" s="6" t="n">
         <v>7405</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J349" s="6"/>
       <c r="K349" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6" t="s">
@@ -35015,7 +35012,7 @@
         <v>100</v>
       </c>
       <c r="R349" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
@@ -35037,14 +35034,14 @@
         <v>41</v>
       </c>
       <c r="AB349" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AC349" s="6"/>
       <c r="AD349" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE349" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AF349" s="6"/>
     </row>
@@ -35056,27 +35053,27 @@
         <v>2</v>
       </c>
       <c r="C350" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E350" s="6"/>
       <c r="F350" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H350" s="6" t="n">
         <v>7501</v>
       </c>
       <c r="I350" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J350" s="6"/>
       <c r="K350" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6" t="s">
@@ -35095,7 +35092,7 @@
         <v>100</v>
       </c>
       <c r="R350" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
@@ -35117,14 +35114,14 @@
         <v>41</v>
       </c>
       <c r="AB350" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AC350" s="6"/>
       <c r="AD350" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE350" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AF350" s="6"/>
     </row>
@@ -35136,27 +35133,27 @@
         <v>2</v>
       </c>
       <c r="C351" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E351" s="6"/>
       <c r="F351" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H351" s="6" t="n">
         <v>7502</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J351" s="6"/>
       <c r="K351" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6" t="s">
@@ -35175,7 +35172,7 @@
         <v>100</v>
       </c>
       <c r="R351" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
@@ -35197,14 +35194,14 @@
         <v>41</v>
       </c>
       <c r="AB351" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AC351" s="6"/>
       <c r="AD351" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE351" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AF351" s="6"/>
     </row>
@@ -35216,27 +35213,27 @@
         <v>2</v>
       </c>
       <c r="C352" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D352" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E352" s="6"/>
       <c r="F352" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H352" s="6" t="n">
         <v>7503</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J352" s="6"/>
       <c r="K352" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6" t="s">
@@ -35277,14 +35274,14 @@
         <v>41</v>
       </c>
       <c r="AB352" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AC352" s="6"/>
       <c r="AD352" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE352" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="AF352" s="6"/>
     </row>
@@ -35296,27 +35293,27 @@
         <v>2</v>
       </c>
       <c r="C353" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D353" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H353" s="6" t="n">
         <v>7504</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="J353" s="6"/>
       <c r="K353" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6" t="s">
@@ -35335,7 +35332,7 @@
         <v>100</v>
       </c>
       <c r="R353" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
@@ -35357,14 +35354,14 @@
         <v>41</v>
       </c>
       <c r="AB353" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AC353" s="6"/>
       <c r="AD353" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE353" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AF353" s="6"/>
     </row>
@@ -35376,27 +35373,27 @@
         <v>2</v>
       </c>
       <c r="C354" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>1280</v>
       </c>
       <c r="E354" s="6"/>
       <c r="F354" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H354" s="6" t="n">
         <v>7505</v>
       </c>
       <c r="I354" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J354" s="6"/>
       <c r="K354" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6" t="s">
@@ -35415,7 +35412,7 @@
         <v>100</v>
       </c>
       <c r="R354" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
@@ -35437,14 +35434,14 @@
         <v>41</v>
       </c>
       <c r="AB354" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AC354" s="6"/>
       <c r="AD354" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE354" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF354" s="6"/>
     </row>
@@ -35456,27 +35453,27 @@
         <v>2</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E355" s="6"/>
       <c r="F355" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G355" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="G355" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="H355" s="6" t="n">
         <v>7601</v>
       </c>
       <c r="I355" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J355" s="6"/>
       <c r="K355" s="6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6" t="s">
@@ -35517,14 +35514,14 @@
         <v>41</v>
       </c>
       <c r="AB355" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="AC355" s="6"/>
       <c r="AD355" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE355" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="AF355" s="6"/>
     </row>
@@ -35536,27 +35533,27 @@
         <v>2</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E356" s="6"/>
       <c r="F356" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G356" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="G356" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="H356" s="6" t="n">
         <v>7602</v>
       </c>
       <c r="I356" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J356" s="6"/>
       <c r="K356" s="6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6" t="s">
@@ -35597,14 +35594,14 @@
         <v>41</v>
       </c>
       <c r="AB356" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AC356" s="6"/>
       <c r="AD356" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE356" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF356" s="6"/>
     </row>
@@ -35616,27 +35613,27 @@
         <v>2</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E357" s="6"/>
       <c r="F357" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G357" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="G357" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="H357" s="6" t="n">
         <v>7603</v>
       </c>
       <c r="I357" s="6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="J357" s="6"/>
       <c r="K357" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6" t="s">
@@ -35677,14 +35674,14 @@
         <v>41</v>
       </c>
       <c r="AB357" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AC357" s="6"/>
       <c r="AD357" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE357" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF357" s="6"/>
     </row>
@@ -35696,27 +35693,27 @@
         <v>2</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E358" s="6"/>
       <c r="F358" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G358" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="G358" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="H358" s="6" t="n">
         <v>7604</v>
       </c>
       <c r="I358" s="6" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="J358" s="6"/>
       <c r="K358" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6" t="s">
@@ -35757,14 +35754,14 @@
         <v>41</v>
       </c>
       <c r="AB358" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AC358" s="6"/>
       <c r="AD358" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE358" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AF358" s="6"/>
     </row>
@@ -35776,27 +35773,27 @@
         <v>2</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E359" s="6"/>
       <c r="F359" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G359" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="G359" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="H359" s="6" t="n">
         <v>7605</v>
       </c>
       <c r="I359" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J359" s="6"/>
       <c r="K359" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6" t="s">
@@ -35837,14 +35834,14 @@
         <v>41</v>
       </c>
       <c r="AB359" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AC359" s="6"/>
       <c r="AD359" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE359" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF359" s="6"/>
     </row>
@@ -35856,27 +35853,27 @@
         <v>2</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E360" s="6"/>
       <c r="F360" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H360" s="6" t="n">
         <v>7701</v>
       </c>
       <c r="I360" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J360" s="6"/>
       <c r="K360" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6" t="s">
@@ -35917,14 +35914,14 @@
         <v>41</v>
       </c>
       <c r="AB360" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="AC360" s="6"/>
       <c r="AD360" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE360" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF360" s="6"/>
     </row>
@@ -35936,27 +35933,27 @@
         <v>2</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E361" s="6"/>
       <c r="F361" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H361" s="6" t="n">
         <v>7702</v>
       </c>
       <c r="I361" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J361" s="6"/>
       <c r="K361" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6" t="s">
@@ -35997,14 +35994,14 @@
         <v>41</v>
       </c>
       <c r="AB361" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AC361" s="6"/>
       <c r="AD361" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE361" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AF361" s="6"/>
     </row>
@@ -36016,27 +36013,27 @@
         <v>2</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E362" s="6"/>
       <c r="F362" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H362" s="6" t="n">
         <v>7703</v>
       </c>
       <c r="I362" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="J362" s="6"/>
       <c r="K362" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6" t="s">
@@ -36077,14 +36074,14 @@
         <v>41</v>
       </c>
       <c r="AB362" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="AC362" s="6"/>
       <c r="AD362" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE362" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AF362" s="6"/>
     </row>
@@ -36096,27 +36093,27 @@
         <v>2</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E363" s="6"/>
       <c r="F363" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H363" s="6" t="n">
         <v>7704</v>
       </c>
       <c r="I363" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J363" s="6"/>
       <c r="K363" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6" t="s">
@@ -36157,14 +36154,14 @@
         <v>41</v>
       </c>
       <c r="AB363" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AC363" s="6"/>
       <c r="AD363" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE363" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AF363" s="6"/>
     </row>
@@ -36176,27 +36173,27 @@
         <v>2</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E364" s="6"/>
       <c r="F364" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H364" s="6" t="n">
         <v>7705</v>
       </c>
       <c r="I364" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="J364" s="6"/>
       <c r="K364" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6" t="s">
@@ -36237,14 +36234,14 @@
         <v>41</v>
       </c>
       <c r="AB364" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AC364" s="6"/>
       <c r="AD364" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE364" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AF364" s="6"/>
     </row>
@@ -36256,27 +36253,27 @@
         <v>2</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E365" s="6"/>
       <c r="F365" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H365" s="6" t="n">
         <v>7801</v>
       </c>
       <c r="I365" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="J365" s="6"/>
       <c r="K365" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6" t="s">
@@ -36317,11 +36314,11 @@
         <v>41</v>
       </c>
       <c r="AB365" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AC365" s="6"/>
       <c r="AD365" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE365" s="6" t="n">
         <v>100</v>
@@ -36336,27 +36333,27 @@
         <v>2</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E366" s="6"/>
       <c r="F366" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H366" s="6" t="n">
         <v>7802</v>
       </c>
       <c r="I366" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J366" s="6"/>
       <c r="K366" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6" t="s">
@@ -36397,11 +36394,11 @@
         <v>41</v>
       </c>
       <c r="AB366" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="AC366" s="6"/>
       <c r="AD366" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE366" s="6" t="n">
         <v>100</v>
@@ -36416,27 +36413,27 @@
         <v>2</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E367" s="6"/>
       <c r="F367" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H367" s="6" t="n">
         <v>7803</v>
       </c>
       <c r="I367" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J367" s="6"/>
       <c r="K367" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6" t="s">
@@ -36477,11 +36474,11 @@
         <v>41</v>
       </c>
       <c r="AB367" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AC367" s="6"/>
       <c r="AD367" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE367" s="6" t="n">
         <v>60</v>
@@ -36496,27 +36493,27 @@
         <v>2</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E368" s="6"/>
       <c r="F368" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H368" s="6" t="n">
         <v>7804</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J368" s="6"/>
       <c r="K368" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6" t="s">
@@ -36557,11 +36554,11 @@
         <v>41</v>
       </c>
       <c r="AB368" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AC368" s="6"/>
       <c r="AD368" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE368" s="6" t="n">
         <v>60</v>
@@ -36576,27 +36573,27 @@
         <v>2</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E369" s="6"/>
       <c r="F369" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H369" s="6" t="n">
         <v>7805</v>
       </c>
       <c r="I369" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J369" s="6"/>
       <c r="K369" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6" t="s">
@@ -36637,11 +36634,11 @@
         <v>41</v>
       </c>
       <c r="AB369" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AC369" s="6"/>
       <c r="AD369" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE369" s="6" t="n">
         <v>100</v>
@@ -36656,27 +36653,27 @@
         <v>2</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E370" s="6"/>
       <c r="F370" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H370" s="6" t="n">
         <v>7901</v>
       </c>
       <c r="I370" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J370" s="6"/>
       <c r="K370" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6" t="s">
@@ -36717,14 +36714,14 @@
         <v>41</v>
       </c>
       <c r="AB370" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AC370" s="6"/>
       <c r="AD370" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE370" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF370" s="6"/>
     </row>
@@ -36736,27 +36733,27 @@
         <v>2</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E371" s="6"/>
       <c r="F371" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H371" s="6" t="n">
         <v>7902</v>
       </c>
       <c r="I371" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J371" s="6"/>
       <c r="K371" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6" t="s">
@@ -36797,14 +36794,14 @@
         <v>41</v>
       </c>
       <c r="AB371" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="AC371" s="6"/>
       <c r="AD371" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE371" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF371" s="6"/>
     </row>
@@ -36816,27 +36813,27 @@
         <v>2</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E372" s="6"/>
       <c r="F372" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H372" s="6" t="n">
         <v>7903</v>
       </c>
       <c r="I372" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J372" s="6"/>
       <c r="K372" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6" t="s">
@@ -36877,14 +36874,14 @@
         <v>41</v>
       </c>
       <c r="AB372" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AC372" s="6"/>
       <c r="AD372" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE372" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF372" s="6"/>
     </row>
@@ -36896,27 +36893,27 @@
         <v>2</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E373" s="6"/>
       <c r="F373" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H373" s="6" t="n">
         <v>7904</v>
       </c>
       <c r="I373" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="J373" s="6"/>
       <c r="K373" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6" t="s">
@@ -36957,14 +36954,14 @@
         <v>41</v>
       </c>
       <c r="AB373" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="AC373" s="6"/>
       <c r="AD373" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE373" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF373" s="6"/>
     </row>
@@ -36976,27 +36973,27 @@
         <v>2</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E374" s="6"/>
       <c r="F374" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H374" s="6" t="n">
         <v>7905</v>
       </c>
       <c r="I374" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J374" s="6"/>
       <c r="K374" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6" t="s">
@@ -37037,14 +37034,14 @@
         <v>41</v>
       </c>
       <c r="AB374" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="AC374" s="6"/>
       <c r="AD374" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE374" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF374" s="6"/>
     </row>
@@ -37056,27 +37053,27 @@
         <v>2</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E375" s="6"/>
       <c r="F375" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G375" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G375" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="H375" s="6" t="n">
         <v>8001</v>
       </c>
       <c r="I375" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J375" s="6"/>
       <c r="K375" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6" t="s">
@@ -37095,7 +37092,7 @@
         <v>100</v>
       </c>
       <c r="R375" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S375" s="6"/>
       <c r="T375" s="6"/>
@@ -37117,14 +37114,14 @@
         <v>41</v>
       </c>
       <c r="AB375" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AC375" s="6"/>
       <c r="AD375" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE375" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF375" s="6"/>
     </row>
@@ -37136,27 +37133,27 @@
         <v>2</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E376" s="6"/>
       <c r="F376" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G376" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G376" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="H376" s="6" t="n">
         <v>8002</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J376" s="6"/>
       <c r="K376" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6" t="s">
@@ -37175,7 +37172,7 @@
         <v>100</v>
       </c>
       <c r="R376" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S376" s="6"/>
       <c r="T376" s="6"/>
@@ -37197,14 +37194,14 @@
         <v>41</v>
       </c>
       <c r="AB376" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AC376" s="6"/>
       <c r="AD376" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE376" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF376" s="6"/>
     </row>
@@ -37216,27 +37213,27 @@
         <v>2</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G377" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G377" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="H377" s="6" t="n">
         <v>8003</v>
       </c>
       <c r="I377" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J377" s="6"/>
       <c r="K377" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6" t="s">
@@ -37255,7 +37252,7 @@
         <v>100</v>
       </c>
       <c r="R377" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S377" s="6"/>
       <c r="T377" s="6"/>
@@ -37277,14 +37274,14 @@
         <v>41</v>
       </c>
       <c r="AB377" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AC377" s="6"/>
       <c r="AD377" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE377" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF377" s="6"/>
     </row>
@@ -37296,27 +37293,27 @@
         <v>2</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E378" s="6"/>
       <c r="F378" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G378" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G378" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="H378" s="6" t="n">
         <v>8004</v>
       </c>
       <c r="I378" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J378" s="6"/>
       <c r="K378" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6" t="s">
@@ -37335,7 +37332,7 @@
         <v>100</v>
       </c>
       <c r="R378" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S378" s="6"/>
       <c r="T378" s="6"/>
@@ -37357,14 +37354,14 @@
         <v>41</v>
       </c>
       <c r="AB378" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="AC378" s="6"/>
       <c r="AD378" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE378" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF378" s="6"/>
     </row>
@@ -37376,27 +37373,27 @@
         <v>2</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G379" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="G379" s="6" t="s">
-        <v>1429</v>
       </c>
       <c r="H379" s="6" t="n">
         <v>8005</v>
       </c>
       <c r="I379" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J379" s="6"/>
       <c r="K379" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="L379" s="6"/>
       <c r="M379" s="6" t="s">
@@ -37415,7 +37412,7 @@
         <v>100</v>
       </c>
       <c r="R379" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S379" s="6"/>
       <c r="T379" s="6"/>
@@ -37437,14 +37434,14 @@
         <v>41</v>
       </c>
       <c r="AB379" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AC379" s="6"/>
       <c r="AD379" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE379" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AF379" s="6"/>
     </row>
@@ -37456,27 +37453,27 @@
         <v>2</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E380" s="6"/>
       <c r="F380" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H380" s="6" t="n">
         <v>8101</v>
       </c>
       <c r="I380" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J380" s="6"/>
       <c r="K380" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="L380" s="6"/>
       <c r="M380" s="6" t="s">
@@ -37517,14 +37514,14 @@
         <v>41</v>
       </c>
       <c r="AB380" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="AC380" s="6"/>
       <c r="AD380" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE380" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AF380" s="6"/>
     </row>
@@ -37536,27 +37533,27 @@
         <v>2</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H381" s="6" t="n">
         <v>8102</v>
       </c>
       <c r="I381" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J381" s="6"/>
       <c r="K381" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L381" s="6"/>
       <c r="M381" s="6" t="s">
@@ -37597,11 +37594,11 @@
         <v>41</v>
       </c>
       <c r="AB381" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AC381" s="6"/>
       <c r="AD381" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="AE381" s="6" t="n">
         <v>25</v>
@@ -37616,27 +37613,27 @@
         <v>2</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E382" s="6"/>
       <c r="F382" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H382" s="6" t="n">
         <v>8103</v>
       </c>
       <c r="I382" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J382" s="6"/>
       <c r="K382" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="L382" s="6"/>
       <c r="M382" s="6" t="s">
@@ -37677,14 +37674,14 @@
         <v>41</v>
       </c>
       <c r="AB382" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AC382" s="6"/>
       <c r="AD382" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE382" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AF382" s="6"/>
     </row>
@@ -37696,27 +37693,27 @@
         <v>2</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E383" s="6"/>
       <c r="F383" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H383" s="6" t="n">
         <v>8104</v>
       </c>
       <c r="I383" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="J383" s="6"/>
       <c r="K383" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="L383" s="6"/>
       <c r="M383" s="6" t="s">
@@ -37757,14 +37754,14 @@
         <v>41</v>
       </c>
       <c r="AB383" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="AC383" s="6"/>
       <c r="AD383" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE383" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AF383" s="6"/>
     </row>
@@ -37776,27 +37773,27 @@
         <v>2</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E384" s="6"/>
       <c r="F384" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H384" s="6" t="n">
         <v>8105</v>
       </c>
       <c r="I384" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J384" s="6"/>
       <c r="K384" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L384" s="6"/>
       <c r="M384" s="6" t="s">
@@ -37837,14 +37834,14 @@
         <v>41</v>
       </c>
       <c r="AB384" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AC384" s="6"/>
       <c r="AD384" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE384" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF384" s="6"/>
     </row>
@@ -37856,27 +37853,27 @@
         <v>2</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E385" s="6"/>
       <c r="F385" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H385" s="6" t="n">
         <v>8201</v>
       </c>
       <c r="I385" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J385" s="6"/>
       <c r="K385" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L385" s="6"/>
       <c r="M385" s="6" t="s">
@@ -37917,14 +37914,14 @@
         <v>41</v>
       </c>
       <c r="AB385" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AC385" s="6"/>
       <c r="AD385" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE385" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AF385" s="6"/>
     </row>
@@ -37936,27 +37933,27 @@
         <v>2</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H386" s="6" t="n">
         <v>8202</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="J386" s="6"/>
       <c r="K386" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L386" s="6"/>
       <c r="M386" s="6" t="s">
@@ -37997,14 +37994,14 @@
         <v>41</v>
       </c>
       <c r="AB386" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AC386" s="6"/>
       <c r="AD386" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE386" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AF386" s="6"/>
     </row>
@@ -38016,27 +38013,27 @@
         <v>2</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E387" s="6"/>
       <c r="F387" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H387" s="6" t="n">
         <v>8203</v>
       </c>
       <c r="I387" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J387" s="6"/>
       <c r="K387" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L387" s="6"/>
       <c r="M387" s="6" t="s">
@@ -38077,14 +38074,14 @@
         <v>41</v>
       </c>
       <c r="AB387" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AC387" s="6"/>
       <c r="AD387" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE387" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AF387" s="6"/>
     </row>
@@ -38096,27 +38093,27 @@
         <v>2</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H388" s="6" t="n">
         <v>8204</v>
       </c>
       <c r="I388" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="J388" s="6"/>
       <c r="K388" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="L388" s="6"/>
       <c r="M388" s="6" t="s">
@@ -38157,14 +38154,14 @@
         <v>41</v>
       </c>
       <c r="AB388" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AC388" s="6"/>
       <c r="AD388" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE388" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AF388" s="6"/>
     </row>
@@ -38176,27 +38173,27 @@
         <v>2</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H389" s="6" t="n">
         <v>8205</v>
       </c>
       <c r="I389" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J389" s="6"/>
       <c r="K389" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="L389" s="6"/>
       <c r="M389" s="6" t="s">
@@ -38237,14 +38234,14 @@
         <v>41</v>
       </c>
       <c r="AB389" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AC389" s="6"/>
       <c r="AD389" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE389" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AF389" s="6"/>
     </row>
@@ -38256,27 +38253,27 @@
         <v>2</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H390" s="6" t="n">
         <v>8301</v>
       </c>
       <c r="I390" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J390" s="6"/>
       <c r="K390" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="L390" s="6"/>
       <c r="M390" s="6" t="s">
@@ -38295,7 +38292,7 @@
         <v>100</v>
       </c>
       <c r="R390" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S390" s="6"/>
       <c r="T390" s="6"/>
@@ -38317,14 +38314,14 @@
         <v>41</v>
       </c>
       <c r="AB390" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AC390" s="6"/>
       <c r="AD390" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE390" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF390" s="6"/>
     </row>
@@ -38336,27 +38333,27 @@
         <v>2</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E391" s="6"/>
       <c r="F391" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H391" s="6" t="n">
         <v>8302</v>
       </c>
       <c r="I391" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="J391" s="6"/>
       <c r="K391" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="L391" s="6"/>
       <c r="M391" s="6" t="s">
@@ -38375,7 +38372,7 @@
         <v>100</v>
       </c>
       <c r="R391" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
@@ -38397,14 +38394,14 @@
         <v>41</v>
       </c>
       <c r="AB391" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AC391" s="6"/>
       <c r="AD391" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE391" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF391" s="6"/>
     </row>
@@ -38416,27 +38413,27 @@
         <v>2</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E392" s="6"/>
       <c r="F392" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G392" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H392" s="6" t="n">
         <v>8303</v>
       </c>
       <c r="I392" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="J392" s="6"/>
       <c r="K392" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="L392" s="6"/>
       <c r="M392" s="6" t="s">
@@ -38455,7 +38452,7 @@
         <v>100</v>
       </c>
       <c r="R392" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S392" s="6"/>
       <c r="T392" s="6"/>
@@ -38477,14 +38474,14 @@
         <v>41</v>
       </c>
       <c r="AB392" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AC392" s="6"/>
       <c r="AD392" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE392" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF392" s="6"/>
     </row>
@@ -38496,27 +38493,27 @@
         <v>2</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E393" s="6"/>
       <c r="F393" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G393" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H393" s="6" t="n">
         <v>8304</v>
       </c>
       <c r="I393" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="J393" s="6"/>
       <c r="K393" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="L393" s="6"/>
       <c r="M393" s="6" t="s">
@@ -38535,7 +38532,7 @@
         <v>100</v>
       </c>
       <c r="R393" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
@@ -38557,14 +38554,14 @@
         <v>41</v>
       </c>
       <c r="AB393" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AC393" s="6"/>
       <c r="AD393" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE393" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF393" s="6"/>
     </row>
@@ -38576,27 +38573,27 @@
         <v>2</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E394" s="6"/>
       <c r="F394" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H394" s="6" t="n">
         <v>8305</v>
       </c>
       <c r="I394" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J394" s="6"/>
       <c r="K394" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="L394" s="6"/>
       <c r="M394" s="6" t="s">
@@ -38615,7 +38612,7 @@
         <v>100</v>
       </c>
       <c r="R394" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
@@ -38637,14 +38634,14 @@
         <v>41</v>
       </c>
       <c r="AB394" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AC394" s="6"/>
       <c r="AD394" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE394" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF394" s="6"/>
     </row>
@@ -38656,27 +38653,27 @@
         <v>2</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G395" s="6" t="s">
         <v>1495</v>
-      </c>
-      <c r="G395" s="6" t="s">
-        <v>1496</v>
       </c>
       <c r="H395" s="6" t="n">
         <v>8401</v>
       </c>
       <c r="I395" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="J395" s="6"/>
       <c r="K395" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="L395" s="6"/>
       <c r="M395" s="6" t="s">
@@ -38717,14 +38714,14 @@
         <v>41</v>
       </c>
       <c r="AB395" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AC395" s="6"/>
       <c r="AD395" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE395" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AF395" s="6"/>
     </row>
@@ -38736,27 +38733,27 @@
         <v>2</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E396" s="6"/>
       <c r="F396" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G396" s="6" t="s">
         <v>1495</v>
-      </c>
-      <c r="G396" s="6" t="s">
-        <v>1496</v>
       </c>
       <c r="H396" s="6" t="n">
         <v>8402</v>
       </c>
       <c r="I396" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J396" s="6"/>
       <c r="K396" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L396" s="6"/>
       <c r="M396" s="6" t="s">
@@ -38797,14 +38794,14 @@
         <v>41</v>
       </c>
       <c r="AB396" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AC396" s="6"/>
       <c r="AD396" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE396" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AF396" s="6"/>
     </row>
@@ -38816,27 +38813,27 @@
         <v>2</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G397" s="6" t="s">
         <v>1495</v>
-      </c>
-      <c r="G397" s="6" t="s">
-        <v>1496</v>
       </c>
       <c r="H397" s="6" t="n">
         <v>8403</v>
       </c>
       <c r="I397" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J397" s="6"/>
       <c r="K397" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="L397" s="6"/>
       <c r="M397" s="6" t="s">
@@ -38877,14 +38874,14 @@
         <v>41</v>
       </c>
       <c r="AB397" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AC397" s="6"/>
       <c r="AD397" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE397" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AF397" s="6"/>
     </row>
@@ -38896,27 +38893,27 @@
         <v>2</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E398" s="6"/>
       <c r="F398" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G398" s="6" t="s">
         <v>1495</v>
-      </c>
-      <c r="G398" s="6" t="s">
-        <v>1496</v>
       </c>
       <c r="H398" s="6" t="n">
         <v>8404</v>
       </c>
       <c r="I398" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="J398" s="6"/>
       <c r="K398" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="L398" s="6"/>
       <c r="M398" s="6" t="s">
@@ -38957,14 +38954,14 @@
         <v>41</v>
       </c>
       <c r="AB398" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AC398" s="6"/>
       <c r="AD398" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE398" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AF398" s="6"/>
     </row>
@@ -38976,27 +38973,27 @@
         <v>2</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E399" s="6"/>
       <c r="F399" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G399" s="6" t="s">
         <v>1495</v>
-      </c>
-      <c r="G399" s="6" t="s">
-        <v>1496</v>
       </c>
       <c r="H399" s="6" t="n">
         <v>8405</v>
       </c>
       <c r="I399" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J399" s="6"/>
       <c r="K399" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="L399" s="6"/>
       <c r="M399" s="6" t="s">
@@ -39037,14 +39034,14 @@
         <v>41</v>
       </c>
       <c r="AB399" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AC399" s="6"/>
       <c r="AD399" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE399" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AF399" s="6"/>
     </row>
@@ -39056,27 +39053,27 @@
         <v>2</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E400" s="6"/>
       <c r="F400" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H400" s="6" t="n">
         <v>8501</v>
       </c>
       <c r="I400" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="J400" s="6"/>
       <c r="K400" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="L400" s="6"/>
       <c r="M400" s="6" t="s">
@@ -39117,14 +39114,14 @@
         <v>41</v>
       </c>
       <c r="AB400" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="AC400" s="6"/>
       <c r="AD400" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE400" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AF400" s="6"/>
     </row>
@@ -39136,27 +39133,27 @@
         <v>2</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E401" s="6"/>
       <c r="F401" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G401" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H401" s="6" t="n">
         <v>8502</v>
       </c>
       <c r="I401" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="J401" s="6"/>
       <c r="K401" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="L401" s="6"/>
       <c r="M401" s="6" t="s">
@@ -39197,14 +39194,14 @@
         <v>41</v>
       </c>
       <c r="AB401" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="AC401" s="6"/>
       <c r="AD401" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE401" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="AF401" s="6"/>
     </row>
@@ -39216,23 +39213,23 @@
         <v>2</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E402" s="6"/>
       <c r="F402" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H402" s="6" t="n">
         <v>8503</v>
       </c>
       <c r="I402" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="J402" s="6"/>
       <c r="K402" s="6"/>
@@ -39275,14 +39272,14 @@
         <v>41</v>
       </c>
       <c r="AB402" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="AC402" s="6"/>
       <c r="AD402" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE402" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AF402" s="6"/>
     </row>
@@ -39294,27 +39291,27 @@
         <v>2</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G403" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H403" s="6" t="n">
         <v>8504</v>
       </c>
       <c r="I403" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J403" s="6"/>
       <c r="K403" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L403" s="6"/>
       <c r="M403" s="6" t="s">
@@ -39355,14 +39352,14 @@
         <v>41</v>
       </c>
       <c r="AB403" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AC403" s="6"/>
       <c r="AD403" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE403" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AF403" s="6"/>
     </row>
@@ -39374,27 +39371,27 @@
         <v>2</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E404" s="6"/>
       <c r="F404" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H404" s="6" t="n">
         <v>8505</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J404" s="6"/>
       <c r="K404" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L404" s="6"/>
       <c r="M404" s="6" t="s">
@@ -39435,14 +39432,14 @@
         <v>41</v>
       </c>
       <c r="AB404" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="AC404" s="6"/>
       <c r="AD404" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE404" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="AF404" s="6"/>
     </row>
@@ -39454,27 +39451,27 @@
         <v>2</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H405" s="6" t="n">
         <v>8601</v>
       </c>
       <c r="I405" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J405" s="6"/>
       <c r="K405" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="L405" s="6"/>
       <c r="M405" s="6" t="s">
@@ -39515,14 +39512,14 @@
         <v>41</v>
       </c>
       <c r="AB405" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AC405" s="6"/>
       <c r="AD405" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE405" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="AF405" s="6"/>
     </row>
@@ -39534,27 +39531,27 @@
         <v>2</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E406" s="6"/>
       <c r="F406" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G406" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H406" s="6" t="n">
         <v>8602</v>
       </c>
       <c r="I406" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="J406" s="6"/>
       <c r="K406" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="L406" s="6"/>
       <c r="M406" s="6" t="s">
@@ -39595,14 +39592,14 @@
         <v>41</v>
       </c>
       <c r="AB406" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="AC406" s="6"/>
       <c r="AD406" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE406" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="AF406" s="6"/>
     </row>
@@ -39614,27 +39611,27 @@
         <v>2</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G407" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H407" s="6" t="n">
         <v>8603</v>
       </c>
       <c r="I407" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J407" s="6"/>
       <c r="K407" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="L407" s="6"/>
       <c r="M407" s="6" t="s">
@@ -39675,14 +39672,14 @@
         <v>41</v>
       </c>
       <c r="AB407" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="AC407" s="6"/>
       <c r="AD407" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE407" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="AF407" s="6"/>
     </row>
@@ -39694,27 +39691,27 @@
         <v>2</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E408" s="6"/>
       <c r="F408" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G408" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H408" s="6" t="n">
         <v>8604</v>
       </c>
       <c r="I408" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J408" s="6"/>
       <c r="K408" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="L408" s="6"/>
       <c r="M408" s="6" t="s">
@@ -39755,14 +39752,14 @@
         <v>41</v>
       </c>
       <c r="AB408" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="AC408" s="6"/>
       <c r="AD408" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE408" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AF408" s="6"/>
     </row>
@@ -39774,27 +39771,27 @@
         <v>2</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G409" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H409" s="6" t="n">
         <v>8605</v>
       </c>
       <c r="I409" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J409" s="6"/>
       <c r="K409" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="L409" s="6"/>
       <c r="M409" s="6" t="s">
@@ -39835,14 +39832,14 @@
         <v>41</v>
       </c>
       <c r="AB409" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="AC409" s="6"/>
       <c r="AD409" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE409" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AF409" s="6"/>
     </row>
@@ -39854,27 +39851,27 @@
         <v>2</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G410" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H410" s="6" t="n">
         <v>8701</v>
       </c>
       <c r="I410" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J410" s="6"/>
       <c r="K410" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="L410" s="6"/>
       <c r="M410" s="6" t="s">
@@ -39915,14 +39912,14 @@
         <v>41</v>
       </c>
       <c r="AB410" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="AC410" s="6"/>
       <c r="AD410" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE410" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AF410" s="6"/>
     </row>
@@ -39934,27 +39931,27 @@
         <v>2</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E411" s="6"/>
       <c r="F411" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G411" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H411" s="6" t="n">
         <v>8702</v>
       </c>
       <c r="I411" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J411" s="6"/>
       <c r="K411" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="L411" s="6"/>
       <c r="M411" s="6" t="s">
@@ -39995,14 +39992,14 @@
         <v>41</v>
       </c>
       <c r="AB411" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="AC411" s="6"/>
       <c r="AD411" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE411" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AF411" s="6"/>
     </row>
@@ -40014,27 +40011,27 @@
         <v>2</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E412" s="6"/>
       <c r="F412" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G412" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H412" s="6" t="n">
         <v>8703</v>
       </c>
       <c r="I412" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J412" s="6"/>
       <c r="K412" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L412" s="6"/>
       <c r="M412" s="6" t="s">
@@ -40075,14 +40072,14 @@
         <v>41</v>
       </c>
       <c r="AB412" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="AC412" s="6"/>
       <c r="AD412" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE412" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AF412" s="6"/>
     </row>
@@ -40094,27 +40091,27 @@
         <v>2</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E413" s="6"/>
       <c r="F413" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H413" s="6" t="n">
         <v>8704</v>
       </c>
       <c r="I413" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J413" s="6"/>
       <c r="K413" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="L413" s="6"/>
       <c r="M413" s="6" t="s">
@@ -40155,14 +40152,14 @@
         <v>41</v>
       </c>
       <c r="AB413" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AC413" s="6"/>
       <c r="AD413" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE413" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="AF413" s="6"/>
     </row>
@@ -40174,27 +40171,27 @@
         <v>2</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E414" s="6"/>
       <c r="F414" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G414" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H414" s="6" t="n">
         <v>8705</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J414" s="6"/>
       <c r="K414" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L414" s="6"/>
       <c r="M414" s="6" t="s">
@@ -40235,14 +40232,14 @@
         <v>41</v>
       </c>
       <c r="AB414" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AC414" s="6"/>
       <c r="AD414" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AE414" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AF414" s="6"/>
     </row>
@@ -40272,7 +40269,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C271:C334 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40295,7 +40292,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C271:C334 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
